--- a/output/1Y_P91_KFSDIV.xlsx
+++ b/output/1Y_P91_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.3176</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.2392</v>
       </c>
       <c r="C3" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E3" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="F3" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="H3" s="1">
-        <v>9924.013300000001</v>
+        <v>9884.313700000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9924.013300000001</v>
+        <v>9884.313700000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0076</v>
+        <v>-0.0116</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D4" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1945.8564</v>
+        <v>1941.9644</v>
       </c>
       <c r="F4" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="H4" s="1">
-        <v>19417.5069</v>
+        <v>19340.0233</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19417.5069</v>
+        <v>19340.0233</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2783</v>
+        <v>10.2989</v>
       </c>
       <c r="M4" s="1">
         <v>0.25</v>
       </c>
       <c r="N4" s="1">
-        <v>218.074</v>
+        <v>217.6373</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9781.925999999999</v>
+        <v>-9782.3627</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0254</v>
+        <v>-0.0274</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>10.1873</v>
       </c>
       <c r="C5" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D5" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E5" s="1">
-        <v>2947.9609</v>
+        <v>2942.0644</v>
       </c>
       <c r="F5" s="1">
-        <v>983.9929</v>
+        <v>982.0216</v>
       </c>
       <c r="H5" s="1">
-        <v>30031.7617</v>
+        <v>29911.6745</v>
       </c>
       <c r="I5" s="1">
-        <v>218.074</v>
+        <v>217.6373</v>
       </c>
       <c r="J5" s="1">
-        <v>30249.8357</v>
+        <v>30129.3119</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1765</v>
+        <v>10.1969</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10024.2304</v>
+        <v>-10024.1819</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0283</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>10.4058</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E6" s="1">
-        <v>3931.9537</v>
+        <v>3924.086</v>
       </c>
       <c r="F6" s="1">
-        <v>963.3311</v>
+        <v>961.3954</v>
       </c>
       <c r="H6" s="1">
-        <v>40915.1241</v>
+        <v>40751.6331</v>
       </c>
       <c r="I6" s="1">
-        <v>193.8435</v>
+        <v>193.4554</v>
       </c>
       <c r="J6" s="1">
-        <v>41108.9676</v>
+        <v>40945.0885</v>
       </c>
       <c r="K6" s="1">
-        <v>40024.2304</v>
+        <v>40024.1819</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1792</v>
+        <v>10.1996</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10024.2304</v>
+        <v>-10024.1819</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0213</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>10.2688</v>
       </c>
       <c r="C7" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D7" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E7" s="1">
-        <v>4895.2848</v>
+        <v>4885.4815</v>
       </c>
       <c r="F7" s="1">
-        <v>976.1832000000001</v>
+        <v>974.2241</v>
       </c>
       <c r="H7" s="1">
-        <v>50268.7005</v>
+        <v>50067.8795</v>
       </c>
       <c r="I7" s="1">
-        <v>169.6131</v>
+        <v>169.2735</v>
       </c>
       <c r="J7" s="1">
-        <v>50438.3136</v>
+        <v>50237.153</v>
       </c>
       <c r="K7" s="1">
-        <v>50048.4609</v>
+        <v>50048.3639</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2238</v>
+        <v>10.2443</v>
       </c>
       <c r="M7" s="1">
         <v>0.1</v>
       </c>
       <c r="N7" s="1">
-        <v>353.8758</v>
+        <v>353.1677</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9670.354600000001</v>
+        <v>-9671.0142</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0131</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.4938</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E8" s="1">
-        <v>5871.468</v>
+        <v>5859.7056</v>
       </c>
       <c r="F8" s="1">
-        <v>960.8731</v>
+        <v>958.9382000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>61614.0112</v>
+        <v>61367.5248</v>
       </c>
       <c r="I8" s="1">
-        <v>499.2585</v>
+        <v>498.2593</v>
       </c>
       <c r="J8" s="1">
-        <v>62113.2697</v>
+        <v>61865.7841</v>
       </c>
       <c r="K8" s="1">
-        <v>60072.6913</v>
+        <v>60072.5458</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2313</v>
+        <v>10.2518</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10083.2097</v>
+        <v>-10083.0432</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0277</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.5481</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E9" s="1">
-        <v>6832.3411</v>
+        <v>6818.6438</v>
       </c>
       <c r="F9" s="1">
-        <v>955.9266</v>
+        <v>954.0025000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>72068.21709999999</v>
+        <v>71779.8631</v>
       </c>
       <c r="I9" s="1">
-        <v>416.0487</v>
+        <v>415.2161</v>
       </c>
       <c r="J9" s="1">
-        <v>72484.26579999999</v>
+        <v>72195.0791</v>
       </c>
       <c r="K9" s="1">
-        <v>70155.9011</v>
+        <v>70155.58900000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2682</v>
+        <v>10.2888</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10083.2097</v>
+        <v>-10083.0432</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0051</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>10.3262</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E10" s="1">
-        <v>7788.2677</v>
+        <v>7772.6463</v>
       </c>
       <c r="F10" s="1">
-        <v>976.4686</v>
+        <v>974.499</v>
       </c>
       <c r="H10" s="1">
-        <v>80423.2102</v>
+        <v>80101.0062</v>
       </c>
       <c r="I10" s="1">
-        <v>332.839</v>
+        <v>332.1729</v>
       </c>
       <c r="J10" s="1">
-        <v>80756.04919999999</v>
+        <v>80433.17909999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80239.11079999999</v>
+        <v>80238.63219999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3026</v>
+        <v>10.3232</v>
       </c>
       <c r="M10" s="1">
         <v>0.25</v>
       </c>
       <c r="N10" s="1">
-        <v>1537.2767</v>
+        <v>1534.1949</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8545.933000000001</v>
+        <v>-8548.848400000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.021</v>
+        <v>-0.0214</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.462</v>
       </c>
       <c r="C11" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D11" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E11" s="1">
-        <v>8764.7363</v>
+        <v>8747.145200000001</v>
       </c>
       <c r="F11" s="1">
-        <v>1012.7734</v>
+        <v>1010.6307</v>
       </c>
       <c r="H11" s="1">
-        <v>91696.6712</v>
+        <v>91329.8181</v>
       </c>
       <c r="I11" s="1">
-        <v>1786.906</v>
+        <v>1783.3245</v>
       </c>
       <c r="J11" s="1">
-        <v>93483.5772</v>
+        <v>93113.14260000001</v>
       </c>
       <c r="K11" s="1">
-        <v>90322.32060000001</v>
+        <v>90321.67539999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3052</v>
+        <v>10.3258</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10595.6353</v>
+        <v>-10594.4415</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0301</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.5775</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E12" s="1">
-        <v>9777.509700000001</v>
+        <v>9757.775900000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1001.7145</v>
+        <v>999.5982</v>
       </c>
       <c r="H12" s="1">
-        <v>103421.6089</v>
+        <v>103006.0099</v>
       </c>
       <c r="I12" s="1">
-        <v>1191.2707</v>
+        <v>1188.883</v>
       </c>
       <c r="J12" s="1">
-        <v>104612.8795</v>
+        <v>104194.8929</v>
       </c>
       <c r="K12" s="1">
-        <v>100917.9559</v>
+        <v>100916.1169</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3214</v>
+        <v>10.3421</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10595.6353</v>
+        <v>-10594.4415</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0109</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>10.7066</v>
       </c>
       <c r="C13" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D13" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E13" s="1">
-        <v>10779.2242</v>
+        <v>10757.3741</v>
       </c>
       <c r="F13" s="1">
-        <v>989.6359</v>
+        <v>987.5413</v>
       </c>
       <c r="H13" s="1">
-        <v>115408.8421</v>
+        <v>114944.694</v>
       </c>
       <c r="I13" s="1">
-        <v>595.6353</v>
+        <v>594.4415</v>
       </c>
       <c r="J13" s="1">
-        <v>116004.4774</v>
+        <v>115539.1355</v>
       </c>
       <c r="K13" s="1">
-        <v>111513.5912</v>
+        <v>111510.5584</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3452</v>
+        <v>10.366</v>
       </c>
       <c r="M13" s="1">
         <v>0.2</v>
       </c>
       <c r="N13" s="1">
-        <v>1759.9517</v>
+        <v>1756.3997</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8835.6836</v>
+        <v>-8838.041800000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0121</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>11.1511</v>
       </c>
       <c r="C14" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D14" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E14" s="1">
-        <v>11768.8601</v>
+        <v>11744.9154</v>
       </c>
       <c r="F14" s="1">
-        <v>-11768.8601</v>
+        <v>-11744.9154</v>
       </c>
       <c r="H14" s="1">
-        <v>131235.7357</v>
+        <v>130706.8144</v>
       </c>
       <c r="I14" s="1">
-        <v>1759.9517</v>
+        <v>1756.3997</v>
       </c>
       <c r="J14" s="1">
-        <v>132995.6874</v>
+        <v>132463.2141</v>
       </c>
       <c r="K14" s="1">
-        <v>122109.2266</v>
+        <v>122104.9999</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3756</v>
+        <v>10.3964</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131235.7357</v>
+        <v>130706.8144</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0555</v>
+        <v>0.0552</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.3176</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.2392</v>
       </c>
       <c r="C3" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E3" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="F3" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9924.013300000001</v>
+        <v>9884.313700000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9924.013300000001</v>
+        <v>9884.313700000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0076</v>
+        <v>-0.0116</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D4" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1945.8564</v>
+        <v>1941.9644</v>
       </c>
       <c r="F4" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19417.5069</v>
+        <v>19340.0233</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19417.5069</v>
+        <v>19340.0233</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2783</v>
+        <v>10.2989</v>
       </c>
       <c r="M4" s="1">
         <v>0.25</v>
       </c>
       <c r="N4" s="1">
-        <v>218.074</v>
+        <v>217.6373</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9781.925999999999</v>
+        <v>-9782.3627</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0254</v>
+        <v>-0.0274</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>10.1873</v>
       </c>
       <c r="C5" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D5" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E5" s="1">
-        <v>2947.9609</v>
+        <v>2942.0644</v>
       </c>
       <c r="F5" s="1">
-        <v>978.4965999999999</v>
+        <v>992.2714999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30031.7617</v>
+        <v>29911.6745</v>
       </c>
       <c r="I5" s="1">
-        <v>218.074</v>
+        <v>217.6373</v>
       </c>
       <c r="J5" s="1">
-        <v>30249.8357</v>
+        <v>30129.3119</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1765</v>
+        <v>10.1969</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9968.238300000001</v>
+        <v>-10128.8102</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0283</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>10.4058</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E6" s="1">
-        <v>3926.4575</v>
+        <v>3934.3359</v>
       </c>
       <c r="F6" s="1">
-        <v>878.5551</v>
+        <v>880.3006</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40857.931</v>
+        <v>40858.0787</v>
       </c>
       <c r="I6" s="1">
-        <v>249.8357</v>
+        <v>88.8272</v>
       </c>
       <c r="J6" s="1">
-        <v>41107.7667</v>
+        <v>40946.9058</v>
       </c>
       <c r="K6" s="1">
-        <v>39968.2383</v>
+        <v>40128.8102</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1792</v>
+        <v>10.1996</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9142.069</v>
+        <v>-9178.6299</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0213</v>
+        <v>0.0204</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>10.2688</v>
       </c>
       <c r="C7" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D7" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E7" s="1">
-        <v>4805.0126</v>
+        <v>4814.6365</v>
       </c>
       <c r="F7" s="1">
-        <v>1037.9291</v>
+        <v>1039.9931</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>49341.7133</v>
+        <v>49341.8392</v>
       </c>
       <c r="I7" s="1">
-        <v>1107.7667</v>
+        <v>910.1973</v>
       </c>
       <c r="J7" s="1">
-        <v>50449.4799</v>
+        <v>50252.0365</v>
       </c>
       <c r="K7" s="1">
-        <v>49110.3073</v>
+        <v>49307.44</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2206</v>
+        <v>10.2412</v>
       </c>
       <c r="M7" s="1">
         <v>0.1</v>
       </c>
       <c r="N7" s="1">
-        <v>353.3812</v>
+        <v>354.0902</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10304.9056</v>
+        <v>-10346.8143</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0129</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.4938</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E8" s="1">
-        <v>5842.9417</v>
+        <v>5854.6295</v>
       </c>
       <c r="F8" s="1">
-        <v>827.6638</v>
+        <v>829.3518</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>61314.6619</v>
+        <v>61314.3643</v>
       </c>
       <c r="I8" s="1">
-        <v>802.8611</v>
+        <v>563.383</v>
       </c>
       <c r="J8" s="1">
-        <v>62117.523</v>
+        <v>61877.7474</v>
       </c>
       <c r="K8" s="1">
-        <v>59768.594</v>
+        <v>60008.3445</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2292</v>
+        <v>10.2497</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8685.338100000001</v>
+        <v>-8720.4684</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0276</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.5481</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E9" s="1">
-        <v>6670.6055</v>
+        <v>6683.9814</v>
       </c>
       <c r="F9" s="1">
-        <v>913.6988</v>
+        <v>915.5247000000001</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70362.2139</v>
+        <v>70362.2718</v>
       </c>
       <c r="I9" s="1">
-        <v>2117.523</v>
+        <v>1842.9146</v>
       </c>
       <c r="J9" s="1">
-        <v>72479.7369</v>
+        <v>72205.18640000001</v>
       </c>
       <c r="K9" s="1">
-        <v>68453.93210000001</v>
+        <v>68728.81299999999</v>
       </c>
       <c r="L9" s="1">
-        <v>10.262</v>
+        <v>10.2826</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9637.786099999999</v>
+        <v>-9676.3634</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.005</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>10.3262</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E10" s="1">
-        <v>7584.3043</v>
+        <v>7599.506</v>
       </c>
       <c r="F10" s="1">
-        <v>1131.3898</v>
+        <v>1133.6947</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>78317.0429</v>
+        <v>78316.70940000001</v>
       </c>
       <c r="I10" s="1">
-        <v>2479.7369</v>
+        <v>2166.5512</v>
       </c>
       <c r="J10" s="1">
-        <v>80796.7798</v>
+        <v>80483.26059999999</v>
       </c>
       <c r="K10" s="1">
-        <v>78091.71829999999</v>
+        <v>78405.17630000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2965</v>
+        <v>10.3171</v>
       </c>
       <c r="M10" s="1">
         <v>0.25</v>
       </c>
       <c r="N10" s="1">
-        <v>1500.8862</v>
+        <v>1503.8958</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10182.0709</v>
+        <v>-10226.3297</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0204</v>
+        <v>-0.0209</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.462</v>
       </c>
       <c r="C11" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D11" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E11" s="1">
-        <v>8715.694100000001</v>
+        <v>8733.200699999999</v>
       </c>
       <c r="F11" s="1">
-        <v>842.7078</v>
+        <v>844.3342</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>91183.5913</v>
+        <v>91184.22199999999</v>
       </c>
       <c r="I11" s="1">
-        <v>2297.666</v>
+        <v>1940.2215</v>
       </c>
       <c r="J11" s="1">
-        <v>93481.25719999999</v>
+        <v>93124.44349999999</v>
       </c>
       <c r="K11" s="1">
-        <v>89774.67539999999</v>
+        <v>90135.4019</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3003</v>
+        <v>10.321</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8816.4087</v>
+        <v>-8851.1556</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0296</v>
+        <v>0.0292</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.5775</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E12" s="1">
-        <v>9558.4018</v>
+        <v>9577.534900000001</v>
       </c>
       <c r="F12" s="1">
-        <v>841.0309</v>
+        <v>842.7828</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>101103.9954</v>
+        <v>101103.332</v>
       </c>
       <c r="I12" s="1">
-        <v>3481.2572</v>
+        <v>3089.0659</v>
       </c>
       <c r="J12" s="1">
-        <v>104585.2527</v>
+        <v>104192.3979</v>
       </c>
       <c r="K12" s="1">
-        <v>98591.08409999999</v>
+        <v>98986.5575</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3146</v>
+        <v>10.3353</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8896.0046</v>
+        <v>-8932.402</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0107</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>10.7066</v>
       </c>
       <c r="C13" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D13" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E13" s="1">
-        <v>10399.4328</v>
+        <v>10420.3177</v>
       </c>
       <c r="F13" s="1">
-        <v>808.6070999999999</v>
+        <v>810.1693</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>111342.5668</v>
+        <v>111343.179</v>
       </c>
       <c r="I13" s="1">
-        <v>4585.2527</v>
+        <v>4156.6639</v>
       </c>
       <c r="J13" s="1">
-        <v>115927.8194</v>
+        <v>115499.8429</v>
       </c>
       <c r="K13" s="1">
-        <v>107487.0887</v>
+        <v>107918.9594</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3359</v>
+        <v>10.3566</v>
       </c>
       <c r="M13" s="1">
         <v>0.2</v>
       </c>
       <c r="N13" s="1">
-        <v>1720.5123</v>
+        <v>1723.9563</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6936.9209</v>
+        <v>-6967.621</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0117</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>11.1511</v>
       </c>
       <c r="C14" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D14" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E14" s="1">
-        <v>11208.0399</v>
+        <v>11230.487</v>
       </c>
       <c r="F14" s="1">
-        <v>-11208.0399</v>
+        <v>-11230.487</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124981.9737</v>
+        <v>124981.844</v>
       </c>
       <c r="I14" s="1">
-        <v>7648.3318</v>
+        <v>7189.0429</v>
       </c>
       <c r="J14" s="1">
-        <v>132630.3055</v>
+        <v>132170.887</v>
       </c>
       <c r="K14" s="1">
-        <v>116144.522</v>
+        <v>116610.5367</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3626</v>
+        <v>10.3834</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124981.9737</v>
+        <v>124981.844</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0532</v>
@@ -2224,16 +2224,16 @@
         <v>10.3176</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.2392</v>
       </c>
       <c r="C3" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E3" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="F3" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9924.013300000001</v>
+        <v>9884.313700000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9924.013300000001</v>
+        <v>9884.313700000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0076</v>
+        <v>-0.0116</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D4" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1945.8564</v>
+        <v>1941.9644</v>
       </c>
       <c r="F4" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19417.5069</v>
+        <v>19340.0233</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19417.5069</v>
+        <v>19340.0233</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2783</v>
+        <v>10.2989</v>
       </c>
       <c r="M4" s="1">
         <v>0.25</v>
       </c>
       <c r="N4" s="1">
-        <v>218.074</v>
+        <v>217.6373</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9781.925999999999</v>
+        <v>-9782.3627</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0254</v>
+        <v>-0.0274</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>10.1873</v>
       </c>
       <c r="C5" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D5" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E5" s="1">
-        <v>2947.9609</v>
+        <v>2942.0644</v>
       </c>
       <c r="F5" s="1">
-        <v>1003.0208</v>
+        <v>1000.9735</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30031.7617</v>
+        <v>29911.6745</v>
       </c>
       <c r="I5" s="1">
-        <v>218.074</v>
+        <v>217.6373</v>
       </c>
       <c r="J5" s="1">
-        <v>30249.8357</v>
+        <v>30129.3119</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1765</v>
+        <v>10.1969</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10218.074</v>
+        <v>-10217.6373</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0283</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>10.4058</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E6" s="1">
-        <v>3950.9817</v>
+        <v>3943.0379</v>
       </c>
       <c r="F6" s="1">
-        <v>902.3219</v>
+        <v>919.9863</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>41113.1252</v>
+        <v>40948.4487</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41113.1252</v>
+        <v>40948.4487</v>
       </c>
       <c r="K6" s="1">
-        <v>40218.074</v>
+        <v>40217.6373</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1793</v>
+        <v>10.1997</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9389.381100000001</v>
+        <v>-9592.421</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0214</v>
+        <v>0.0204</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>10.2688</v>
       </c>
       <c r="C7" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D7" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E7" s="1">
-        <v>4853.3036</v>
+        <v>4863.0242</v>
       </c>
       <c r="F7" s="1">
-        <v>1033.2871</v>
+        <v>1011.4855</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49837.6037</v>
+        <v>49837.7308</v>
       </c>
       <c r="I7" s="1">
-        <v>610.6189000000001</v>
+        <v>407.579</v>
       </c>
       <c r="J7" s="1">
-        <v>50448.2226</v>
+        <v>50245.3099</v>
       </c>
       <c r="K7" s="1">
-        <v>49607.455</v>
+        <v>49810.0583</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2214</v>
+        <v>10.2426</v>
       </c>
       <c r="M7" s="1">
         <v>0.1</v>
       </c>
       <c r="N7" s="1">
-        <v>355.5884</v>
+        <v>354.8734</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10255.0306</v>
+        <v>-10052.7056</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.013</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.4938</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E8" s="1">
-        <v>5886.5907</v>
+        <v>5874.5097</v>
       </c>
       <c r="F8" s="1">
-        <v>884.9118999999999</v>
+        <v>910.5711</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>61772.7055</v>
+        <v>61522.5652</v>
       </c>
       <c r="I8" s="1">
-        <v>355.5884</v>
+        <v>354.8734</v>
       </c>
       <c r="J8" s="1">
-        <v>62128.2939</v>
+        <v>61877.4387</v>
       </c>
       <c r="K8" s="1">
-        <v>60218.074</v>
+        <v>60217.6373</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2297</v>
+        <v>10.2507</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9286.088400000001</v>
+        <v>-9574.472599999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0278</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.5481</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E9" s="1">
-        <v>6771.5026</v>
+        <v>6785.0808</v>
       </c>
       <c r="F9" s="1">
-        <v>946.8626</v>
+        <v>948.7549</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71426.4865</v>
+        <v>71426.5453</v>
       </c>
       <c r="I9" s="1">
-        <v>1069.5</v>
+        <v>780.4008</v>
       </c>
       <c r="J9" s="1">
-        <v>72495.9865</v>
+        <v>72206.946</v>
       </c>
       <c r="K9" s="1">
-        <v>69504.1623</v>
+        <v>69792.11</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2642</v>
+        <v>10.2861</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9987.6014</v>
+        <v>-10027.58</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0051</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>10.3262</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E10" s="1">
-        <v>7718.3652</v>
+        <v>7733.8356</v>
       </c>
       <c r="F10" s="1">
-        <v>1073.1826</v>
+        <v>1039.2311</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>79701.3826</v>
+        <v>79701.0433</v>
       </c>
       <c r="I10" s="1">
-        <v>1081.8986</v>
+        <v>752.8207</v>
       </c>
       <c r="J10" s="1">
-        <v>80783.2812</v>
+        <v>80453.864</v>
       </c>
       <c r="K10" s="1">
-        <v>79491.7637</v>
+        <v>79819.69</v>
       </c>
       <c r="L10" s="1">
-        <v>10.299</v>
+        <v>10.3208</v>
       </c>
       <c r="M10" s="1">
         <v>0.25</v>
       </c>
       <c r="N10" s="1">
-        <v>1523.5881</v>
+        <v>1526.6432</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9558.3105</v>
+        <v>-9226.177600000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0208</v>
+        <v>-0.0213</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.462</v>
       </c>
       <c r="C11" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D11" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E11" s="1">
-        <v>8791.5478</v>
+        <v>8773.066800000001</v>
       </c>
       <c r="F11" s="1">
-        <v>984.8108</v>
+        <v>1022.8612</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>91977.1734</v>
+        <v>91600.46769999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1523.5881</v>
+        <v>1526.6432</v>
       </c>
       <c r="J11" s="1">
-        <v>93500.76149999999</v>
+        <v>93127.1109</v>
       </c>
       <c r="K11" s="1">
-        <v>90573.6623</v>
+        <v>90572.5107</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3024</v>
+        <v>10.3239</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10303.0907</v>
+        <v>-10722.6543</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0299</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.5775</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E12" s="1">
-        <v>9776.3586</v>
+        <v>9795.928</v>
       </c>
       <c r="F12" s="1">
-        <v>886.999</v>
+        <v>888.8446</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>103409.4335</v>
+        <v>103408.755</v>
       </c>
       <c r="I12" s="1">
-        <v>1220.4974</v>
+        <v>803.9888999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>104629.9309</v>
+        <v>104212.7439</v>
       </c>
       <c r="K12" s="1">
-        <v>100876.753</v>
+        <v>101295.165</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3184</v>
+        <v>10.3405</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9382.231900000001</v>
+        <v>-9420.597400000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0109</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>10.7066</v>
       </c>
       <c r="C13" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D13" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E13" s="1">
-        <v>10663.3576</v>
+        <v>10684.7726</v>
       </c>
       <c r="F13" s="1">
-        <v>858.0986</v>
+        <v>859.7585</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>114168.3049</v>
+        <v>114168.9326</v>
       </c>
       <c r="I13" s="1">
-        <v>1838.2655</v>
+        <v>1383.3915</v>
       </c>
       <c r="J13" s="1">
-        <v>116006.5704</v>
+        <v>115552.3241</v>
       </c>
       <c r="K13" s="1">
-        <v>110258.9849</v>
+        <v>110715.7625</v>
       </c>
       <c r="L13" s="1">
-        <v>10.34</v>
+        <v>10.362</v>
       </c>
       <c r="M13" s="1">
         <v>0.2</v>
       </c>
       <c r="N13" s="1">
-        <v>1759.7446</v>
+        <v>1763.267</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7427.5743</v>
+        <v>-7460.3077</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.012</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>11.1511</v>
       </c>
       <c r="C14" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D14" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E14" s="1">
-        <v>11521.4563</v>
+        <v>11544.5311</v>
       </c>
       <c r="F14" s="1">
-        <v>-11521.4563</v>
+        <v>-11544.5311</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>128476.911</v>
+        <v>128476.7777</v>
       </c>
       <c r="I14" s="1">
-        <v>4410.6912</v>
+        <v>3923.0837</v>
       </c>
       <c r="J14" s="1">
-        <v>132887.6023</v>
+        <v>132399.8615</v>
       </c>
       <c r="K14" s="1">
-        <v>119446.3037</v>
+        <v>119939.3372</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3673</v>
+        <v>10.3893</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128476.911</v>
+        <v>128476.7777</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0546</v>
+        <v>0.0545</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.3176</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.2392</v>
       </c>
       <c r="C3" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E3" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="F3" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9924.013300000001</v>
+        <v>9884.313700000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9924.013300000001</v>
+        <v>9884.313700000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0076</v>
+        <v>-0.0116</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D4" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1945.8564</v>
+        <v>1941.9644</v>
       </c>
       <c r="F4" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19417.5069</v>
+        <v>19340.0233</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19417.5069</v>
+        <v>19340.0233</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2783</v>
+        <v>10.2989</v>
       </c>
       <c r="M4" s="1">
         <v>0.25</v>
       </c>
       <c r="N4" s="1">
-        <v>218.074</v>
+        <v>217.6373</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9781.925999999999</v>
+        <v>-9782.3627</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0254</v>
+        <v>-0.0274</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>10.1873</v>
       </c>
       <c r="C5" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D5" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E5" s="1">
-        <v>2947.9609</v>
+        <v>2942.0644</v>
       </c>
       <c r="F5" s="1">
-        <v>1003.0208</v>
+        <v>1000.9735</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30031.7617</v>
+        <v>29911.6745</v>
       </c>
       <c r="I5" s="1">
-        <v>218.074</v>
+        <v>217.6373</v>
       </c>
       <c r="J5" s="1">
-        <v>30249.8357</v>
+        <v>30129.3119</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1765</v>
+        <v>10.1969</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10218.074</v>
+        <v>-10217.6373</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0283</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>10.4058</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E6" s="1">
-        <v>3950.9817</v>
+        <v>3943.0379</v>
       </c>
       <c r="F6" s="1">
-        <v>951.097</v>
+        <v>959.0762</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>41113.1252</v>
+        <v>40948.4487</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41113.1252</v>
+        <v>40948.4487</v>
       </c>
       <c r="K6" s="1">
-        <v>40218.074</v>
+        <v>40217.6373</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1793</v>
+        <v>10.1997</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9896.9249</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0214</v>
+        <v>0.0204</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>10.2688</v>
       </c>
       <c r="C7" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D7" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E7" s="1">
-        <v>4902.0787</v>
+        <v>4902.1141</v>
       </c>
       <c r="F7" s="1">
-        <v>983.8613</v>
+        <v>971.874</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>50338.4653</v>
+        <v>50238.3362</v>
       </c>
       <c r="I7" s="1">
-        <v>103.0751</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>50441.5404</v>
+        <v>50238.3362</v>
       </c>
       <c r="K7" s="1">
-        <v>50114.9989</v>
+        <v>50217.6373</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2232</v>
+        <v>10.2441</v>
       </c>
       <c r="M7" s="1">
         <v>0.1</v>
       </c>
       <c r="N7" s="1">
-        <v>355.5884</v>
+        <v>354.8734</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9747.486800000001</v>
+        <v>-9645.1266</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0131</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.4938</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E8" s="1">
-        <v>5885.94</v>
+        <v>5873.9881</v>
       </c>
       <c r="F8" s="1">
-        <v>986.8292</v>
+        <v>984.7903</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>61765.8769</v>
+        <v>61517.1025</v>
       </c>
       <c r="I8" s="1">
-        <v>355.5884</v>
+        <v>354.8734</v>
       </c>
       <c r="J8" s="1">
-        <v>62121.4653</v>
+        <v>61871.9759</v>
       </c>
       <c r="K8" s="1">
-        <v>60218.074</v>
+        <v>60217.6373</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2308</v>
+        <v>10.2516</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10355.5884</v>
+        <v>-10354.8734</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0278</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.5481</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E9" s="1">
-        <v>6872.7692</v>
+        <v>6858.7784</v>
       </c>
       <c r="F9" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>72494.6566</v>
+        <v>72202.3605</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>72494.6566</v>
+        <v>72202.3605</v>
       </c>
       <c r="K9" s="1">
-        <v>70573.6623</v>
+        <v>70572.5107</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2686</v>
+        <v>10.2894</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0052</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>10.3262</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E10" s="1">
-        <v>7820.8072</v>
+        <v>7804.9238</v>
       </c>
       <c r="F10" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>80759.21950000001</v>
+        <v>80433.64260000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80759.21950000001</v>
+        <v>80433.64260000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80573.6623</v>
+        <v>80572.5107</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3025</v>
+        <v>10.3233</v>
       </c>
       <c r="M10" s="1">
         <v>0.25</v>
       </c>
       <c r="N10" s="1">
-        <v>1546.3731</v>
+        <v>1543.2251</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8453.626899999999</v>
+        <v>-8456.7749</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.021</v>
+        <v>-0.0215</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.462</v>
       </c>
       <c r="C11" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D11" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E11" s="1">
-        <v>8789.217699999999</v>
+        <v>8771.3969</v>
       </c>
       <c r="F11" s="1">
-        <v>1103.6487</v>
+        <v>1101.1376</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>91952.7953</v>
+        <v>91583.03200000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1546.3731</v>
+        <v>1543.2251</v>
       </c>
       <c r="J11" s="1">
-        <v>93499.1683</v>
+        <v>93126.25719999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90573.6623</v>
+        <v>90572.5107</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3051</v>
+        <v>10.3259</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11546.3731</v>
+        <v>-11543.2251</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0302</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>10.5775</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E12" s="1">
-        <v>9892.866400000001</v>
+        <v>9872.5345</v>
       </c>
       <c r="F12" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>104641.7944</v>
+        <v>104217.4355</v>
       </c>
       <c r="I12" s="1">
         <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>104641.7944</v>
+        <v>104217.4355</v>
       </c>
       <c r="K12" s="1">
-        <v>102120.0354</v>
+        <v>102115.7359</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3226</v>
+        <v>10.3434</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.011</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>10.7066</v>
       </c>
       <c r="C13" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D13" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E13" s="1">
-        <v>10838.2694</v>
+        <v>10816.0464</v>
       </c>
       <c r="F13" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>116041.015</v>
+        <v>115571.6189</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>116041.015</v>
+        <v>115571.6189</v>
       </c>
       <c r="K13" s="1">
-        <v>112120.0354</v>
+        <v>112115.7359</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3448</v>
+        <v>10.3657</v>
       </c>
       <c r="M13" s="1">
         <v>0.2</v>
       </c>
       <c r="N13" s="1">
-        <v>1780.716</v>
+        <v>1777.0562</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8219.284</v>
+        <v>-8222.943799999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0122</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>11.1511</v>
       </c>
       <c r="C14" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D14" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E14" s="1">
-        <v>11772.2727</v>
+        <v>11748.1779</v>
       </c>
       <c r="F14" s="1">
-        <v>-11772.2727</v>
+        <v>-11748.1779</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>131273.7902</v>
+        <v>130743.1222</v>
       </c>
       <c r="I14" s="1">
-        <v>1780.716</v>
+        <v>1777.0562</v>
       </c>
       <c r="J14" s="1">
-        <v>133054.5062</v>
+        <v>132520.1784</v>
       </c>
       <c r="K14" s="1">
-        <v>122120.0354</v>
+        <v>122115.7359</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3735</v>
+        <v>10.3944</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131273.7902</v>
+        <v>130743.1222</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0556</v>
+        <v>0.0553</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.3176</v>
       </c>
       <c r="C2" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D2" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.2392</v>
       </c>
       <c r="C3" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E3" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="F3" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9924.013300000001</v>
+        <v>9884.313700000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9924.013300000001</v>
+        <v>9884.313700000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0076</v>
+        <v>-0.0116</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D4" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1945.8564</v>
+        <v>1941.9644</v>
       </c>
       <c r="F4" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19417.5069</v>
+        <v>19340.0233</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19417.5069</v>
+        <v>19340.0233</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2783</v>
+        <v>10.2989</v>
       </c>
       <c r="M4" s="1">
         <v>0.25</v>
       </c>
       <c r="N4" s="1">
-        <v>218.074</v>
+        <v>217.6373</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9781.925999999999</v>
+        <v>-9782.3627</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0254</v>
+        <v>-0.0274</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>10.1873</v>
       </c>
       <c r="C5" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D5" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E5" s="1">
-        <v>2947.9609</v>
+        <v>2942.0644</v>
       </c>
       <c r="F5" s="1">
-        <v>1003.0208</v>
+        <v>1000.9735</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30031.7617</v>
+        <v>29911.6745</v>
       </c>
       <c r="I5" s="1">
-        <v>218.074</v>
+        <v>217.6373</v>
       </c>
       <c r="J5" s="1">
-        <v>30249.8357</v>
+        <v>30129.3119</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1765</v>
+        <v>10.1969</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10218.074</v>
+        <v>-10217.6373</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0283</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>10.4058</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E6" s="1">
-        <v>3950.9817</v>
+        <v>3943.0379</v>
       </c>
       <c r="F6" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41113.1252</v>
+        <v>40948.4487</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41113.1252</v>
+        <v>40948.4487</v>
       </c>
       <c r="K6" s="1">
-        <v>40218.074</v>
+        <v>40217.6373</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1793</v>
+        <v>10.1997</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0214</v>
+        <v>0.0204</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>10.2688</v>
       </c>
       <c r="C7" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D7" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E7" s="1">
-        <v>4911.9842</v>
+        <v>4902.1141</v>
       </c>
       <c r="F7" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50440.1834</v>
+        <v>50238.3362</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>50440.1834</v>
+        <v>50238.3362</v>
       </c>
       <c r="K7" s="1">
-        <v>50218.074</v>
+        <v>50217.6373</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2236</v>
+        <v>10.2441</v>
       </c>
       <c r="M7" s="1">
         <v>0.1</v>
       </c>
       <c r="N7" s="1">
-        <v>355.5884</v>
+        <v>354.8734</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9644.411599999999</v>
+        <v>-9645.1266</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0132</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.4938</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E8" s="1">
-        <v>5885.8078</v>
+        <v>5873.9881</v>
       </c>
       <c r="F8" s="1">
-        <v>986.8292</v>
+        <v>984.7903</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>61764.4901</v>
+        <v>61517.1025</v>
       </c>
       <c r="I8" s="1">
-        <v>355.5884</v>
+        <v>354.8734</v>
       </c>
       <c r="J8" s="1">
-        <v>62120.0785</v>
+        <v>61871.9759</v>
       </c>
       <c r="K8" s="1">
-        <v>60218.074</v>
+        <v>60217.6373</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2311</v>
+        <v>10.2516</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10355.5884</v>
+        <v>-10354.8734</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0278</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.5481</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E9" s="1">
-        <v>6872.637</v>
+        <v>6858.7784</v>
       </c>
       <c r="F9" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>72493.26270000001</v>
+        <v>72202.3605</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>72493.26270000001</v>
+        <v>72202.3605</v>
       </c>
       <c r="K9" s="1">
-        <v>70573.6623</v>
+        <v>70572.5107</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0052</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>10.3262</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E10" s="1">
-        <v>7820.6751</v>
+        <v>7804.9238</v>
       </c>
       <c r="F10" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>80757.85490000001</v>
+        <v>80433.64260000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80757.85490000001</v>
+        <v>80433.64260000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80573.6623</v>
+        <v>80572.5107</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3026</v>
+        <v>10.3233</v>
       </c>
       <c r="M10" s="1">
         <v>0.25</v>
       </c>
       <c r="N10" s="1">
-        <v>1546.3433</v>
+        <v>1543.2251</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8453.6567</v>
+        <v>-8456.7749</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.021</v>
+        <v>-0.0215</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.462</v>
       </c>
       <c r="C11" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D11" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E11" s="1">
-        <v>8789.085499999999</v>
+        <v>8771.3969</v>
       </c>
       <c r="F11" s="1">
-        <v>1103.6459</v>
+        <v>1101.1376</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>91951.4127</v>
+        <v>91583.03200000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1546.3433</v>
+        <v>1543.2251</v>
       </c>
       <c r="J11" s="1">
-        <v>93497.75599999999</v>
+        <v>93126.25719999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90573.6623</v>
+        <v>90572.5107</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3052</v>
+        <v>10.3259</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11546.3433</v>
+        <v>-11543.2251</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0302</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.5775</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E12" s="1">
-        <v>9892.731400000001</v>
+        <v>9872.5345</v>
       </c>
       <c r="F12" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>104640.3665</v>
+        <v>104217.4355</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>104640.3665</v>
+        <v>104217.4355</v>
       </c>
       <c r="K12" s="1">
-        <v>102120.0057</v>
+        <v>102115.7359</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3227</v>
+        <v>10.3434</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.011</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>10.7066</v>
       </c>
       <c r="C13" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D13" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E13" s="1">
-        <v>10838.1344</v>
+        <v>10816.0464</v>
       </c>
       <c r="F13" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>116039.5696</v>
+        <v>115571.6189</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>116039.5696</v>
+        <v>115571.6189</v>
       </c>
       <c r="K13" s="1">
-        <v>112120.0057</v>
+        <v>112115.7359</v>
       </c>
       <c r="L13" s="1">
-        <v>10.345</v>
+        <v>10.3657</v>
       </c>
       <c r="M13" s="1">
         <v>0.2</v>
       </c>
       <c r="N13" s="1">
-        <v>1780.6917</v>
+        <v>1777.0562</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8219.308300000001</v>
+        <v>-8222.943799999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0122</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>11.1511</v>
       </c>
       <c r="C14" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D14" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E14" s="1">
-        <v>11772.1377</v>
+        <v>11748.1779</v>
       </c>
       <c r="F14" s="1">
-        <v>-11772.1377</v>
+        <v>-11748.1779</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>131272.2849</v>
+        <v>130743.1222</v>
       </c>
       <c r="I14" s="1">
-        <v>1780.6917</v>
+        <v>1777.0562</v>
       </c>
       <c r="J14" s="1">
-        <v>133052.9765</v>
+        <v>132520.1784</v>
       </c>
       <c r="K14" s="1">
-        <v>122120.0057</v>
+        <v>122115.7359</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3736</v>
+        <v>10.3944</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131272.2849</v>
+        <v>130743.1222</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0556</v>
+        <v>0.0553</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3756</v>
+        <v>10.3964</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3626</v>
+        <v>10.3834</v>
       </c>
       <c r="E3" s="1">
-        <v>10.3673</v>
+        <v>10.3893</v>
       </c>
       <c r="F3" s="1">
-        <v>10.3735</v>
+        <v>10.3944</v>
       </c>
       <c r="G3" s="1">
-        <v>10.3736</v>
+        <v>10.3944</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0801</v>
       </c>
       <c r="C4" s="3">
-        <v>0.124</v>
+        <v>0.1116</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1211</v>
+        <v>0.1094</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1233</v>
+        <v>0.1113</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1246</v>
+        <v>0.1122</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1246</v>
+        <v>0.1122</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.066</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0796</v>
+        <v>0.081</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0779</v>
+        <v>0.0795</v>
       </c>
       <c r="E5" s="3">
-        <v>0.079</v>
+        <v>0.0805</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0798</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0798</v>
+        <v>0.08119999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.9059</v>
       </c>
       <c r="C6" s="4">
-        <v>1.3027</v>
+        <v>1.1277</v>
       </c>
       <c r="D6" s="4">
-        <v>1.2941</v>
+        <v>1.1215</v>
       </c>
       <c r="E6" s="4">
-        <v>1.3039</v>
+        <v>1.1291</v>
       </c>
       <c r="F6" s="4">
-        <v>1.307</v>
+        <v>1.1316</v>
       </c>
       <c r="G6" s="4">
-        <v>1.3066</v>
+        <v>1.1316</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2077</v>
+        <v>0.199</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2065</v>
+        <v>0.1981</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2073</v>
+        <v>0.1987</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2078</v>
+        <v>0.1991</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2078</v>
+        <v>0.1991</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3869.1783</v>
+        <v>3861.3996</v>
       </c>
       <c r="D8" s="1">
-        <v>3792.8537</v>
+        <v>3799.5797</v>
       </c>
       <c r="E8" s="1">
-        <v>3856.995</v>
+        <v>3862.421</v>
       </c>
       <c r="F8" s="1">
-        <v>3900.7513</v>
+        <v>3892.7921</v>
       </c>
       <c r="G8" s="1">
-        <v>3900.6973</v>
+        <v>3892.7921</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P91_KFSDIV.xlsx
+++ b/output/1Y_P91_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3176</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.2392</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.978999999999999</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1873</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4058</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.2688</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4938</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.5481</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3262</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.462</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.5775</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.7066</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.1511</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3176</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.2392</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.978999999999999</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1873</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4058</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.2688</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4938</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.5481</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3262</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.462</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.5775</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.7066</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.1511</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3176</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.2392</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.978999999999999</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1873</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4058</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.2688</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4938</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.5481</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3262</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.462</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.5775</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.7066</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.1511</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3176</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.2392</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.978999999999999</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1873</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4058</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.2688</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4938</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.5481</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3262</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.462</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.5775</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.7066</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.1511</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3176</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.2392</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.978999999999999</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1873</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4058</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.2688</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4938</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.5481</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.3262</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.462</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.5775</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.7066</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.1511</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>4598.9331</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0862</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1391</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1098</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0866</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
